--- a/Data/3_MC_RECC_appliances_V1.0.xlsx
+++ b/Data/3_MC_RECC_appliances_V1.0.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sklose\Documents\ODYM-RECC-Repos\RECC-Cu-Repo\ODYM-RECC Cu\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11640" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dataset description" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cover" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="values" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Dataset description" sheetId="1" r:id="rId1"/>
+    <sheet name="Cover" sheetId="2" r:id="rId2"/>
+    <sheet name="Values_Master" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="195">
   <si>
     <t>id</t>
   </si>
@@ -468,81 +473,30 @@
     <t>No_Rows</t>
   </si>
   <si>
-    <t>No_Cols</t>
-  </si>
-  <si>
     <t># Two types are supported: list and table</t>
   </si>
   <si>
-    <t>Row Aspects classification</t>
-  </si>
-  <si>
-    <t>Row Aspects_Meaning</t>
-  </si>
-  <si>
-    <t>Col Aspects classification</t>
-  </si>
-  <si>
-    <t>Col Aspects_Meaning</t>
-  </si>
-  <si>
     <t>DATA</t>
   </si>
   <si>
     <t>DATA_Info</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Age-cohort of product</t>
-  </si>
-  <si>
     <t>Products_m3</t>
   </si>
   <si>
     <t>Product</t>
   </si>
   <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>Material content, mean estimate</t>
-  </si>
-  <si>
     <t xml:space="preserve"># Aspects: Specify aspects in order of appearance in data table. </t>
   </si>
   <si>
-    <t>Products_components_m3</t>
-  </si>
-  <si>
-    <t>Components</t>
-  </si>
-  <si>
-    <t>SSP_Regions_32</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>Unit of mean material content</t>
-  </si>
-  <si>
     <t># Aspects_Meaning: Describe meaning of each aspect</t>
   </si>
   <si>
     <t>Engineering_Materials_m2</t>
   </si>
   <si>
-    <t>Materials</t>
-  </si>
-  <si>
-    <t>stats_array_string</t>
-  </si>
-  <si>
     <t>String describing uncertainty distribution (http://stats-arrays.readthedocs.io/en/latest/)</t>
   </si>
   <si>
@@ -561,15 +515,9 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Diff</t>
-  </si>
-  <si>
     <t>Air-conditioning</t>
   </si>
   <si>
-    <t>copper</t>
-  </si>
-  <si>
     <t>Air-cooler</t>
   </si>
   <si>
@@ -601,71 +549,124 @@
   </si>
   <si>
     <t>Washing Machine</t>
+  </si>
+  <si>
+    <t>copper electric grade</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Stats_array_string</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>g/unit</t>
+  </si>
+  <si>
+    <t>Uncertainty</t>
+  </si>
+  <si>
+    <t>Difference between low and high estimate</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>Aspects_classifications</t>
+  </si>
+  <si>
+    <t>Aspects_Meaning</t>
+  </si>
+  <si>
+    <t>Mean lifetime</t>
+  </si>
+  <si>
+    <t>Unit of mean lifetime</t>
+  </si>
+  <si>
+    <t>Stats_Array_String</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>SSP_Regions_1</t>
+  </si>
+  <si>
+    <t>wOrld o</t>
+  </si>
+  <si>
+    <t>good g</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>engineering Materials m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999816888943144"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,61 +680,79 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Table1" headerRowCount="1" id="1" name="Table1" ref="A1:B69" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B69" totalsRowShown="0">
   <autoFilter ref="A1:B69"/>
   <tableColumns count="2">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="160"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1021,24 +1040,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="16" width="23.6640625"/>
-    <col customWidth="1" max="2" min="2" style="16" width="153.109375"/>
+    <col min="1" max="1" width="23.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="153.109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1054,17 +1069,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1072,7 +1087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1080,7 +1095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +1103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1096,7 +1111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1104,7 +1119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1112,7 +1127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1120,7 +1135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1128,7 +1143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1136,7 +1151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1144,7 +1159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1152,7 +1167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1160,7 +1175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1168,7 +1183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1176,7 +1191,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1184,7 +1199,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1192,7 +1207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1200,12 +1215,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1213,7 +1228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1221,7 +1236,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1229,7 +1244,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1237,7 +1252,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1245,7 +1260,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1253,97 +1268,97 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -1351,7 +1366,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -1359,7 +1374,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -1367,7 +1382,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -1375,7 +1390,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -1383,7 +1398,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -1391,12 +1406,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -1404,7 +1419,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -1412,7 +1427,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -1420,7 +1435,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -1428,7 +1443,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -1436,7 +1451,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>92</v>
       </c>
@@ -1444,7 +1459,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -1452,7 +1467,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -1460,42 +1475,42 @@
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -1503,644 +1518,1013 @@
         <v>106</v>
       </c>
     </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="14">
+        <v>6450.5</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" s="14">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" s="14">
+        <v>3225</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" s="14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="14">
+        <v>1357.5</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" s="14">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="14">
+        <v>164.5</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E82" s="14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" s="14">
+        <v>705.5</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E83" s="14">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" s="14">
+        <v>79.5</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E84" s="14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="14">
+        <v>657.5</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" s="14">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="14">
+        <v>1065.5</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E86" s="14">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="14">
+        <v>880</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E87" s="14">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="14">
+        <v>1028.5</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E88" s="14">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="14">
+        <v>185.5</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E89" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" s="14">
+        <v>1699</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E90" s="14">
+        <v>1198</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.5" footer="0.75" header="0.5" left="0.75" right="0.75" top="0.75"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="16" width="34.6640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="16" width="69.109375"/>
-    <col customWidth="1" max="6" min="6" style="16" width="41.88671875"/>
+    <col min="1" max="1" width="34.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.88671875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>108</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B3" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>108</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="12" t="n"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B4" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>108</v>
       </c>
       <c r="H4" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="12" t="n"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>108</v>
       </c>
       <c r="H5" t="s">
         <v>121</v>
       </c>
-      <c r="L5" s="12" t="n"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>108</v>
       </c>
       <c r="H6" t="s">
         <v>123</v>
       </c>
-      <c r="L6" s="12" t="n"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>108</v>
       </c>
       <c r="H7" t="s">
         <v>125</v>
       </c>
-      <c r="L7" s="12" t="n"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B8" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>108</v>
       </c>
       <c r="H8" t="s">
         <v>128</v>
       </c>
-      <c r="L8" s="12" t="n"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>108</v>
       </c>
       <c r="H9" t="s">
         <v>130</v>
       </c>
-      <c r="L9" s="12" t="n"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B10" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>108</v>
       </c>
       <c r="H10" t="s">
         <v>133</v>
       </c>
-      <c r="L10" s="12" t="n"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>108</v>
       </c>
       <c r="H11" t="s">
         <v>136</v>
       </c>
-      <c r="L11" s="12" t="n"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="6">
         <v>43549</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>108</v>
       </c>
       <c r="H12" t="s">
         <v>138</v>
       </c>
-      <c r="L12" s="12" t="n"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B13" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>108</v>
       </c>
       <c r="H13" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="12" t="n"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>108</v>
       </c>
       <c r="H14" t="s">
         <v>143</v>
       </c>
-      <c r="L14" s="12" t="n"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>108</v>
       </c>
       <c r="H15" t="s">
         <v>146</v>
       </c>
-      <c r="L15" s="12" t="n"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="12" t="n"/>
-      <c r="L16" s="12" t="n"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="E16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E17" s="12" t="n"/>
-      <c r="L17" s="12" t="n"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="E17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="12" t="n"/>
-      <c r="L18" s="12" t="n"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="E18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="12" t="n"/>
-      <c r="L19" s="12" t="n"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="E19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="12" t="n"/>
-      <c r="L20" s="12" t="n"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="E20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="9" t="n">
-        <v>325</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="9">
+        <v>12</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="9" t="n">
-        <v>84</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L21" s="12" t="n"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="E22" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="B24" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="L22" s="12" t="n"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="11" t="s">
+      <c r="B25" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E25" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E26" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="12" t="s">
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H23" t="s">
-        <v>164</v>
-      </c>
-      <c r="L23" s="12" t="n"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="12" t="s">
+      <c r="F27" s="19"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" s="12" t="n"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B25" t="s">
-        <v>173</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F25" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" s="12" t="s">
+      <c r="F28" s="19"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H25" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="L25" s="12" t="n"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="E26" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" t="s">
-        <v>177</v>
-      </c>
-      <c r="G26" s="12" t="s">
+      <c r="F29" s="19"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H26" t="s">
-        <v>178</v>
-      </c>
-      <c r="L26" s="12" t="n"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="16" width="30.21875"/>
+    <col min="2" max="2" width="30.21875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2">
+        <v>6450.5</v>
+      </c>
+      <c r="E2" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6450.5</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="F2">
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>184</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" t="n">
+        <v>165</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3">
         <v>3225</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>185</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" t="n">
+        <v>166</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4">
         <v>1357.5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>186</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" t="n">
+        <v>167</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5">
         <v>164.5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>187</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" t="n">
+        <v>168</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6">
         <v>705.5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6">
         <v>1011</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>188</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" t="n">
+        <v>169</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7">
         <v>79.5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>189</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" t="n">
+        <v>170</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8">
         <v>657.5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8">
         <v>825</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>190</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" t="n">
+        <v>171</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9">
         <v>1065.5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9">
         <v>531</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>191</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" t="n">
+        <v>172</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10">
         <v>880</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10">
         <v>760</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>192</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" t="n">
+        <v>173</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11">
         <v>1028.5</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11">
         <v>725</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>193</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" t="n">
+        <v>174</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12">
         <v>185.5</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>194</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" t="n">
+        <v>175</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13">
         <v>1699</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13">
         <v>1198</v>
       </c>
     </row>
-    <row r="14" spans="1:6"/>
-    <row r="15" spans="1:6"/>
-    <row r="16" spans="1:6"/>
-    <row r="17" spans="1:6"/>
-    <row r="18" spans="1:6"/>
-    <row r="19" spans="1:6"/>
-    <row r="20" spans="1:6"/>
-    <row r="21" spans="1:6"/>
-    <row r="22" spans="1:6"/>
-    <row r="23" spans="1:6"/>
-    <row r="24" spans="1:6"/>
-    <row r="25" spans="1:6"/>
-    <row r="26" spans="1:6"/>
-    <row r="27" spans="1:6"/>
-    <row r="28" spans="1:6"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/3_MC_RECC_appliances_V1.0.xlsx
+++ b/Data/3_MC_RECC_appliances_V1.0.xlsx
@@ -482,9 +482,6 @@
     <t>DATA_Info</t>
   </si>
   <si>
-    <t>Products_m3</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -599,13 +596,16 @@
     <t>wOrld o</t>
   </si>
   <si>
-    <t>good g</t>
-  </si>
-  <si>
     <t>World</t>
   </si>
   <si>
     <t>engineering Materials m</t>
+  </si>
+  <si>
+    <t>Sector_appliances</t>
+  </si>
+  <si>
+    <t>Appliances a</t>
   </si>
 </sst>
 </file>
@@ -1520,38 +1520,38 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B78" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="D78" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C79" s="14">
         <v>6450.5</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E79" s="14">
         <v>299</v>
@@ -1559,16 +1559,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C80" s="14">
         <v>3225</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E80" s="14">
         <v>150</v>
@@ -1576,16 +1576,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C81" s="14">
         <v>1357.5</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E81" s="14">
         <v>215</v>
@@ -1593,16 +1593,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C82" s="14">
         <v>164.5</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E82" s="14">
         <v>71</v>
@@ -1610,16 +1610,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C83" s="14">
         <v>705.5</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E83" s="14">
         <v>1011</v>
@@ -1627,16 +1627,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C84" s="14">
         <v>79.5</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E84" s="14">
         <v>99</v>
@@ -1644,16 +1644,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C85" s="14">
         <v>657.5</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E85" s="14">
         <v>825</v>
@@ -1661,16 +1661,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C86" s="14">
         <v>1065.5</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E86" s="14">
         <v>531</v>
@@ -1678,16 +1678,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C87" s="14">
         <v>880</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E87" s="14">
         <v>760</v>
@@ -1695,16 +1695,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C88" s="14">
         <v>1028.5</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E88" s="14">
         <v>725</v>
@@ -1712,16 +1712,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C89" s="14">
         <v>185.5</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E89" s="14">
         <v>21</v>
@@ -1729,16 +1729,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" s="14" t="s">
         <v>175</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>176</v>
       </c>
       <c r="C90" s="14">
         <v>1699</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E90" s="14">
         <v>1198</v>
@@ -1757,7 +1757,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2028,7 +2028,7 @@
         <v>148</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>149</v>
@@ -2051,10 +2051,10 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>151</v>
@@ -2076,16 +2076,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>191</v>
-      </c>
       <c r="C23" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>108</v>
@@ -2093,7 +2093,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -2103,16 +2103,16 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>108</v>
@@ -2120,7 +2120,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -2130,16 +2130,16 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>157</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>158</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>108</v>
@@ -2147,7 +2147,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -2159,10 +2159,10 @@
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>108</v>
@@ -2170,7 +2170,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2253,7 +2253,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2263,42 +2263,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2">
         <v>6450.5</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2">
         <v>299</v>
@@ -2306,19 +2306,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3">
         <v>3225</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F3">
         <v>150</v>
@@ -2326,19 +2326,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4">
         <v>1357.5</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4">
         <v>215</v>
@@ -2346,19 +2346,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5">
         <v>164.5</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5">
         <v>71</v>
@@ -2366,19 +2366,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6">
         <v>705.5</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F6">
         <v>1011</v>
@@ -2386,19 +2386,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7">
         <v>79.5</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F7">
         <v>99</v>
@@ -2406,19 +2406,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8">
         <v>657.5</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F8">
         <v>825</v>
@@ -2426,19 +2426,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9">
         <v>1065.5</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F9">
         <v>531</v>
@@ -2446,19 +2446,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10">
         <v>880</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F10">
         <v>760</v>
@@ -2466,19 +2466,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11">
         <v>1028.5</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F11">
         <v>725</v>
@@ -2486,19 +2486,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D12">
         <v>185.5</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F12">
         <v>21</v>
@@ -2506,19 +2506,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>175</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>176</v>
       </c>
       <c r="D13">
         <v>1699</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F13">
         <v>1198</v>
